--- a/PhoenixCI/Excel_Template/30520.xlsx
+++ b/PhoenixCI/Excel_Template/30520.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEF538DE-6108-41A2-8526-DFDB3A8EE77F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F50E17AD-1ACE-4EA7-B0D3-37CD145C55B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="12390" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="30520" sheetId="17" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -520,20 +519,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -542,7 +541,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -568,10 +567,12 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -599,13 +600,16 @@
     <xf numFmtId="200" fontId="17" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="200" fontId="17" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="200" fontId="17" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="200" fontId="17" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="200" fontId="17" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="200" fontId="17" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="200" fontId="17" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -614,7 +618,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -984,8 +988,8 @@
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1">
@@ -1001,10 +1005,10 @@
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A3" s="29">
+      <c r="A3" s="31">
         <v>30</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="31">
         <v>1998</v>
       </c>
       <c r="C3" s="7"/>
@@ -1017,27 +1021,27 @@
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="42" customHeight="1">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="42" t="s">
+      <c r="C4" s="46"/>
+      <c r="D4" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="38" t="s">
+      <c r="E4" s="46"/>
+      <c r="F4" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="41" t="s">
         <v>5</v>
       </c>
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A5" s="41"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
@@ -1050,302 +1054,302 @@
       <c r="E5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
     </row>
     <row r="7" spans="1:8" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="14"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
       <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="14"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
       <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="14"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="14"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
       <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="14"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
       <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="14"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="14"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="14"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
       <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:8" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="14"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
       <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:8" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="14"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
       <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="14"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
       <c r="H17" s="15"/>
     </row>
     <row r="18" spans="1:8" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="14"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
       <c r="H18" s="15"/>
     </row>
     <row r="19" spans="1:8" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="14"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="14"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
     </row>
     <row r="21" spans="1:8" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="14"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
     </row>
     <row r="22" spans="1:8" s="17" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="26"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
     </row>
     <row r="23" spans="1:8" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="14"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="31"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="33"/>
     </row>
     <row r="24" spans="1:8" s="17" customFormat="1" ht="15" customHeight="1">
-      <c r="A24" s="26"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1">
-      <c r="A25" s="26"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1">
-      <c r="A26" s="26"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
       <c r="H26" s="10"/>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1">
-      <c r="A27" s="27"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
       <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1">
-      <c r="A28" s="27"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
       <c r="H28" s="10"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A29" s="27"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
       <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A30" s="27"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="32"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="34"/>
       <c r="H30" s="10"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A31" s="27"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="32"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="34"/>
       <c r="H31" s="10"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A32" s="27"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="32"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="34"/>
       <c r="H32" s="10"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A33" s="27"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="35"/>
       <c r="H33" s="10"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A34" s="27"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="32"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="34"/>
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A35" s="28"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="34"/>
+      <c r="A35" s="30"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="37"/>
       <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:8" s="16" customFormat="1" ht="11.45" customHeight="1">
@@ -1360,7 +1364,7 @@
       <c r="G36" s="20"/>
       <c r="H36" s="20"/>
     </row>
-    <row r="37" spans="1:8" s="16" customFormat="1" ht="11.45" customHeight="1">
+    <row r="37" spans="1:8" s="22" customFormat="1" ht="11.45" customHeight="1">
       <c r="A37" s="19" t="s">
         <v>11</v>
       </c>
@@ -1369,47 +1373,47 @@
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-    </row>
-    <row r="38" spans="1:8" s="16" customFormat="1" ht="11.45" customHeight="1">
-      <c r="A38" s="44" t="s">
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+    </row>
+    <row r="38" spans="1:8" s="22" customFormat="1" ht="11.45" customHeight="1">
+      <c r="A38" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="45"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-    </row>
-    <row r="39" spans="1:8" s="16" customFormat="1" ht="11.45" customHeight="1">
+      <c r="B38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+    </row>
+    <row r="39" spans="1:8" s="22" customFormat="1" ht="11.45" customHeight="1">
       <c r="A39" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-    </row>
-    <row r="40" spans="1:8" s="16" customFormat="1" ht="11.45" customHeight="1">
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+    </row>
+    <row r="40" spans="1:8" s="22" customFormat="1" ht="11.45" customHeight="1">
       <c r="A40" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-    </row>
-    <row r="41" spans="1:8" s="16" customFormat="1" ht="11.45" customHeight="1">
-      <c r="A41" s="22" t="s">
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+    </row>
+    <row r="41" spans="1:8" s="22" customFormat="1" ht="11.45" customHeight="1">
+      <c r="A41" s="24" t="s">
         <v>15</v>
       </c>
       <c r="B41" s="19"/>
@@ -1420,8 +1424,8 @@
       <c r="G41" s="19"/>
       <c r="H41" s="19"/>
     </row>
-    <row r="42" spans="1:8" s="16" customFormat="1" ht="11.45" customHeight="1">
-      <c r="A42" s="23" t="s">
+    <row r="42" spans="1:8" s="22" customFormat="1" ht="11.45" customHeight="1">
+      <c r="A42" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B42" s="19"/>
@@ -1432,8 +1436,8 @@
       <c r="G42" s="19"/>
       <c r="H42" s="19"/>
     </row>
-    <row r="43" spans="1:8" s="16" customFormat="1" ht="11.45" customHeight="1">
-      <c r="A43" s="22" t="s">
+    <row r="43" spans="1:8" s="22" customFormat="1" ht="11.45" customHeight="1">
+      <c r="A43" s="24" t="s">
         <v>17</v>
       </c>
       <c r="B43" s="19"/>
@@ -1444,62 +1448,62 @@
       <c r="G43" s="19"/>
       <c r="H43" s="19"/>
     </row>
-    <row r="44" spans="1:8" s="16" customFormat="1" ht="11.45" customHeight="1">
-      <c r="A44" s="22" t="s">
+    <row r="44" spans="1:8" s="22" customFormat="1" ht="11.45" customHeight="1">
+      <c r="A44" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
       <c r="G44" s="19"/>
       <c r="H44" s="19"/>
     </row>
     <row r="45" spans="1:8" s="16" customFormat="1" ht="11.45" customHeight="1">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="25"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="27"/>
     </row>
     <row r="46" spans="1:8" s="16" customFormat="1" ht="11.45" customHeight="1">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="25"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="27"/>
     </row>
     <row r="47" spans="1:8" s="16" customFormat="1" ht="11.45" customHeight="1">
-      <c r="A47" s="22"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="25"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="27"/>
     </row>
     <row r="48" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A48" s="35">
+      <c r="A48" s="38">
         <v>50</v>
       </c>
-      <c r="B48" s="36"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
     </row>
     <row r="49" ht="15" customHeight="1"/>
     <row r="50" ht="15" customHeight="1"/>

--- a/PhoenixCI/Excel_Template/30520.xlsx
+++ b/PhoenixCI/Excel_Template/30520.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F50E17AD-1ACE-4EA7-B0D3-37CD145C55B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEF538DE-6108-41A2-8526-DFDB3A8EE77F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="12390" windowHeight="9000"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="30520" sheetId="17" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -519,20 +520,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -541,7 +542,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -567,12 +568,10 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -600,16 +599,13 @@
     <xf numFmtId="200" fontId="17" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="200" fontId="17" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="200" fontId="17" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="200" fontId="17" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="200" fontId="17" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="200" fontId="17" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="200" fontId="17" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -618,7 +614,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -988,8 +984,8 @@
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1">
@@ -1005,10 +1001,10 @@
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A3" s="31">
+      <c r="A3" s="29">
         <v>30</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="29">
         <v>1998</v>
       </c>
       <c r="C3" s="7"/>
@@ -1021,27 +1017,27 @@
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="42" customHeight="1">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="45" t="s">
+      <c r="C4" s="43"/>
+      <c r="D4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="41" t="s">
+      <c r="E4" s="43"/>
+      <c r="F4" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="38" t="s">
         <v>5</v>
       </c>
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A5" s="44"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
@@ -1054,302 +1050,302 @@
       <c r="E5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" spans="1:8" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="14"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
       <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="14"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
       <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="14"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="14"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
       <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="14"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
       <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="14"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="14"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="14"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
       <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:8" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="14"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
       <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:8" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="14"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
       <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="14"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
       <c r="H17" s="15"/>
     </row>
     <row r="18" spans="1:8" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="14"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
       <c r="H18" s="15"/>
     </row>
     <row r="19" spans="1:8" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="14"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="14"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
     </row>
     <row r="21" spans="1:8" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="14"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
     </row>
     <row r="22" spans="1:8" s="17" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="28"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
     </row>
     <row r="23" spans="1:8" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="14"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="33"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="31"/>
     </row>
     <row r="24" spans="1:8" s="17" customFormat="1" ht="15" customHeight="1">
-      <c r="A24" s="28"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1">
-      <c r="A25" s="28"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1">
-      <c r="A26" s="28"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
       <c r="H26" s="10"/>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1">
-      <c r="A27" s="29"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
       <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1">
-      <c r="A28" s="29"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
       <c r="H28" s="10"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A29" s="29"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
       <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A30" s="29"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="34"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="32"/>
       <c r="H30" s="10"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A31" s="29"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="34"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="32"/>
       <c r="H31" s="10"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A32" s="29"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="34"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="32"/>
       <c r="H32" s="10"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A33" s="29"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="35"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
       <c r="H33" s="10"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A34" s="29"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="34"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="32"/>
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A35" s="30"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="37"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="34"/>
       <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:8" s="16" customFormat="1" ht="11.45" customHeight="1">
@@ -1364,7 +1360,7 @@
       <c r="G36" s="20"/>
       <c r="H36" s="20"/>
     </row>
-    <row r="37" spans="1:8" s="22" customFormat="1" ht="11.45" customHeight="1">
+    <row r="37" spans="1:8" s="16" customFormat="1" ht="11.45" customHeight="1">
       <c r="A37" s="19" t="s">
         <v>11</v>
       </c>
@@ -1373,47 +1369,47 @@
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-    </row>
-    <row r="38" spans="1:8" s="22" customFormat="1" ht="11.45" customHeight="1">
-      <c r="A38" s="47" t="s">
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+    </row>
+    <row r="38" spans="1:8" s="16" customFormat="1" ht="11.45" customHeight="1">
+      <c r="A38" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="48"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-    </row>
-    <row r="39" spans="1:8" s="22" customFormat="1" ht="11.45" customHeight="1">
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+    </row>
+    <row r="39" spans="1:8" s="16" customFormat="1" ht="11.45" customHeight="1">
       <c r="A39" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-    </row>
-    <row r="40" spans="1:8" s="22" customFormat="1" ht="11.45" customHeight="1">
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+    </row>
+    <row r="40" spans="1:8" s="16" customFormat="1" ht="11.45" customHeight="1">
       <c r="A40" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-    </row>
-    <row r="41" spans="1:8" s="22" customFormat="1" ht="11.45" customHeight="1">
-      <c r="A41" s="24" t="s">
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+    </row>
+    <row r="41" spans="1:8" s="16" customFormat="1" ht="11.45" customHeight="1">
+      <c r="A41" s="22" t="s">
         <v>15</v>
       </c>
       <c r="B41" s="19"/>
@@ -1424,8 +1420,8 @@
       <c r="G41" s="19"/>
       <c r="H41" s="19"/>
     </row>
-    <row r="42" spans="1:8" s="22" customFormat="1" ht="11.45" customHeight="1">
-      <c r="A42" s="25" t="s">
+    <row r="42" spans="1:8" s="16" customFormat="1" ht="11.45" customHeight="1">
+      <c r="A42" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B42" s="19"/>
@@ -1436,8 +1432,8 @@
       <c r="G42" s="19"/>
       <c r="H42" s="19"/>
     </row>
-    <row r="43" spans="1:8" s="22" customFormat="1" ht="11.45" customHeight="1">
-      <c r="A43" s="24" t="s">
+    <row r="43" spans="1:8" s="16" customFormat="1" ht="11.45" customHeight="1">
+      <c r="A43" s="22" t="s">
         <v>17</v>
       </c>
       <c r="B43" s="19"/>
@@ -1448,62 +1444,62 @@
       <c r="G43" s="19"/>
       <c r="H43" s="19"/>
     </row>
-    <row r="44" spans="1:8" s="22" customFormat="1" ht="11.45" customHeight="1">
-      <c r="A44" s="24" t="s">
+    <row r="44" spans="1:8" s="16" customFormat="1" ht="11.45" customHeight="1">
+      <c r="A44" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
       <c r="G44" s="19"/>
       <c r="H44" s="19"/>
     </row>
     <row r="45" spans="1:8" s="16" customFormat="1" ht="11.45" customHeight="1">
-      <c r="A45" s="24" t="s">
+      <c r="A45" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="27"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="25"/>
     </row>
     <row r="46" spans="1:8" s="16" customFormat="1" ht="11.45" customHeight="1">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="27"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="25"/>
     </row>
     <row r="47" spans="1:8" s="16" customFormat="1" ht="11.45" customHeight="1">
-      <c r="A47" s="24"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="27"/>
+      <c r="A47" s="22"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="25"/>
     </row>
     <row r="48" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A48" s="38">
+      <c r="A48" s="35">
         <v>50</v>
       </c>
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
     </row>
     <row r="49" ht="15" customHeight="1"/>
     <row r="50" ht="15" customHeight="1"/>
